--- a/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>Serie</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5923,10 +5926,21 @@
         <v>370</v>
       </c>
       <c r="B367">
-        <v>129.45</v>
+        <v>129.48</v>
       </c>
       <c r="C367">
-        <v>162.55</v>
+        <v>162.59</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>371</v>
+      </c>
+      <c r="B368">
+        <v>130.18</v>
+      </c>
+      <c r="C368">
+        <v>166.82</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Serie</t>
   </si>
@@ -1130,6 +1130,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E368"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5937,10 +5940,21 @@
         <v>371</v>
       </c>
       <c r="B368">
-        <v>130.18</v>
+        <v>130.23</v>
       </c>
       <c r="C368">
-        <v>166.82</v>
+        <v>166.88</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>372</v>
+      </c>
+      <c r="B369">
+        <v>130.86</v>
+      </c>
+      <c r="C369">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas de supermercado 1991 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>Serie</t>
   </si>
@@ -1133,6 +1133,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E369"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5951,10 +5954,21 @@
         <v>372</v>
       </c>
       <c r="B369">
-        <v>130.86</v>
+        <v>131.02</v>
       </c>
       <c r="C369">
-        <v>168</v>
+        <v>168.22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>373</v>
+      </c>
+      <c r="B370">
+        <v>130.84</v>
+      </c>
+      <c r="C370">
+        <v>170.23</v>
       </c>
     </row>
   </sheetData>
